--- a/biology/Zoologie/Foudi_rouge/Foudi_rouge.xlsx
+++ b/biology/Zoologie/Foudi_rouge/Foudi_rouge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Foudia madagascariensis
 Le foudi rouge (Foudia madagascariensis) est une espèce de passereau appartenant à la famille des Ploceidae, de Madagascar, où il est appelé Fody, prononcé "foud".
@@ -514,7 +526,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Mâle
@@ -549,11 +563,11 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Vit en solitaire en dehors de la période de reproduction.
-Reproduction
-Le Foudi mâle créé son nid pour la période de reproduction. Le nid est fait de brindilles, de feuilles et d'autres objets trouvés sur place qui viennent agrémenter le nid. Il a une forme à peu près ronde et pend aux branches des arbres. Pendant la période de reproduction, le mâle attire la femelle de sorte qu'elle choisisse son nid pour la reproduction. Comme un kkliki[réf. souhaitée], il laisse tout aussi vite la femelle avec ses petits dans le nid, et recommence la construction d'un autre nid, pour la saison prochaine. À chaque saison, l'oiseau crée un autre nid souvent sur le même arbre que le précédent. Au fil du temps, l'arbre abritant les nids (souvent vide) se retrouve totalement sans feuille, ce qui lui donne un aspect d'arbre mort.
 </t>
         </is>
       </c>
@@ -579,10 +593,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Foudi mâle créé son nid pour la période de reproduction. Le nid est fait de brindilles, de feuilles et d'autres objets trouvés sur place qui viennent agrémenter le nid. Il a une forme à peu près ronde et pend aux branches des arbres. Pendant la période de reproduction, le mâle attire la femelle de sorte qu'elle choisisse son nid pour la reproduction. Comme un kkliki[réf. souhaitée], il laisse tout aussi vite la femelle avec ses petits dans le nid, et recommence la construction d'un autre nid, pour la saison prochaine. À chaque saison, l'oiseau crée un autre nid souvent sur le même arbre que le précédent. Au fil du temps, l'arbre abritant les nids (souvent vide) se retrouve totalement sans feuille, ce qui lui donne un aspect d'arbre mort.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Foudi_rouge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Foudi_rouge</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Foudi rouge est natif de Madagascar. Il a cependant été introduit dans plusieurs îles de l'océan Indien, incluant la Réunion, l'île Maurice et les Seychelles. Il vit essentiellement dans des zones peu boisées, comme les savanes ou les cultures.
 Le Foudi reste toute sa vie à proximité de son lieu de naissance. Le mâle a l'habitude de construire tous ses nids aux alentours, voire sur le même arbre.
@@ -590,37 +643,108 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Foudi_rouge</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Foudi_rouge</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce a été décrite  par le naturaliste suédois Carl von Linné en 1766, sous le nom initial de Loxia madagascariensis[1].
-Synonyme
-Loxia madagascariensis Linné, 1766 (Protonyme)
-Taxinomie
-Liste des sous-espèces
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été décrite  par le naturaliste suédois Carl von Linné en 1766, sous le nom initial de Loxia madagascariensis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Foudi_rouge</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Foudi_rouge</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Synonyme</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Loxia madagascariensis Linné, 1766 (Protonyme)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Foudi_rouge</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Foudi_rouge</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces
 Foudia madagascariensis madagascariensis
 Foudia madagascariensis bruante</t>
         </is>
